--- a/generated_output/temp/us-core-medicationstatement.xlsx
+++ b/generated_output/temp/us-core-medicationstatement.xlsx
@@ -186,7 +186,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -205,7 +205,7 @@
     <t>MedicationStatement.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -221,7 +221,7 @@
     <t>MedicationStatement.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -240,7 +240,7 @@
     <t>MedicationStatement.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -272,7 +272,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -298,7 +298,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -324,7 +324,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -359,7 +359,7 @@
     <t>MedicationStatement.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -384,7 +384,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest]]}
+    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ServiceRequest)
 </t>
   </si>
   <si>
@@ -406,7 +406,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationAdministration], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationDispense], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationStatement], CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Observation)
 </t>
   </si>
   <si>
@@ -460,7 +460,7 @@
     <t>MedicationStatement.statusReason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -512,8 +512,8 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication]]}</t>
+    <t>CodeableConcept
+Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication)</t>
   </si>
   <si>
     <t>What medication was taken</t>
@@ -546,7 +546,7 @@
     <t>MedicationStatement.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -574,7 +574,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -593,8 +593,8 @@
     <t>MedicationStatement.effective[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>The date/time or interval when the medication is/was/will be taken</t>
@@ -618,7 +618,7 @@
     <t>MedicationStatement.dateAsserted</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -637,7 +637,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)
 </t>
   </si>
   <si>
@@ -656,7 +656,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -705,7 +705,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport]]}
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
 </t>
   </si>
   <si>
@@ -727,7 +727,7 @@
     <t>MedicationStatement.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -746,7 +746,7 @@
     <t>MedicationStatement.dosage</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage {[]} {[]}
+    <t xml:space="preserve">Dosage
 </t>
   </si>
   <si>
@@ -812,67 +812,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
